--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -540,10 +540,10 @@
         <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>1418.689539178748</v>
+        <v>1526.492890145578</v>
       </c>
       <c r="R2">
-        <v>12768.20585260873</v>
+        <v>13738.43601131021</v>
       </c>
       <c r="S2">
-        <v>0.5273287537233693</v>
+        <v>0.5132163125291236</v>
       </c>
       <c r="T2">
-        <v>0.5273287537233693</v>
+        <v>0.5132163125291236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
         <v>878.3276482966578</v>
@@ -632,10 +632,10 @@
         <v>7904.94883466992</v>
       </c>
       <c r="S3">
-        <v>0.326475533473781</v>
+        <v>0.2952991656634565</v>
       </c>
       <c r="T3">
-        <v>0.326475533473781</v>
+        <v>0.2952991656634565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>254.9864354761067</v>
+        <v>382.5719363542897</v>
       </c>
       <c r="R4">
-        <v>2294.87791928496</v>
+        <v>3443.147427188608</v>
       </c>
       <c r="S4">
-        <v>0.09477879093534228</v>
+        <v>0.1286230415617267</v>
       </c>
       <c r="T4">
-        <v>0.09477879093534226</v>
+        <v>0.1286230415617267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H5">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I5">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J5">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>76.89853516448187</v>
+        <v>102.3942572376973</v>
       </c>
       <c r="R5">
-        <v>692.0868164803369</v>
+        <v>921.5483151392759</v>
       </c>
       <c r="S5">
-        <v>0.02858328590687501</v>
+        <v>0.03442558000953278</v>
       </c>
       <c r="T5">
-        <v>0.02858328590687501</v>
+        <v>0.03442558000953277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H6">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I6">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J6">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
-        <v>47.60880212564056</v>
+        <v>58.91655817020723</v>
       </c>
       <c r="R6">
-        <v>428.479219130765</v>
+        <v>530.2490235318651</v>
       </c>
       <c r="S6">
-        <v>0.01769625390041969</v>
+        <v>0.01980810976993003</v>
       </c>
       <c r="T6">
-        <v>0.01769625390041969</v>
+        <v>0.01980810976993003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H7">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I7">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J7">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>13.82126450743833</v>
+        <v>25.66220223878622</v>
       </c>
       <c r="R7">
-        <v>124.391380566945</v>
+        <v>230.959820149076</v>
       </c>
       <c r="S7">
-        <v>0.00513738206021282</v>
+        <v>0.008627790466230382</v>
       </c>
       <c r="T7">
-        <v>0.00513738206021282</v>
+        <v>0.00862779046623038</v>
       </c>
     </row>
   </sheetData>
